--- a/Team_Two_Design/BOM.xlsx
+++ b/Team_Two_Design/BOM.xlsx
@@ -10,12 +10,11 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Index</t>
   </si>
@@ -56,24 +55,12 @@
     <t>CAP CER 680PF 50V NP0 0402</t>
   </si>
   <si>
-    <t>TCR5AM085LFCT-ND</t>
-  </si>
-  <si>
-    <t>IC REG LDO 0.85V 0.5A 5DFN</t>
-  </si>
-  <si>
     <t>732-8541-1-ND</t>
   </si>
   <si>
     <t>CAP 1 UF 20% 50 V</t>
   </si>
   <si>
-    <t>732-8500-1-ND</t>
-  </si>
-  <si>
-    <t>CAP 3.3 UF 20% 35 V</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -96,6 +83,24 @@
   </si>
   <si>
     <t>Unit Price / 100 targets</t>
+  </si>
+  <si>
+    <t>BAT-HLD-001-ND </t>
+  </si>
+  <si>
+    <t>Battery Holder</t>
+  </si>
+  <si>
+    <t>497-6975-1-ND</t>
+  </si>
+  <si>
+    <t>541-220HCT-ND</t>
+  </si>
+  <si>
+    <t>IC REG LDO 0.8V</t>
+  </si>
+  <si>
+    <t>220 ohm resistor</t>
   </si>
 </sst>
 </file>
@@ -131,7 +136,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -182,19 +187,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -203,7 +195,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -228,37 +220,40 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -556,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -596,11 +591,11 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="17" t="s">
-        <v>23</v>
+      <c r="H1" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1"/>
     </row>
@@ -609,7 +604,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>7</v>
@@ -618,20 +613,21 @@
         <v>8</v>
       </c>
       <c r="E2" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F2" s="8">
         <v>0.17599999999999999</v>
       </c>
       <c r="G2" s="5">
-        <v>3.52</v>
-      </c>
-      <c r="H2" s="18">
+        <f>F2*B2</f>
+        <v>1.7599999999999998</v>
+      </c>
+      <c r="H2" s="13">
         <v>9.5799999999999996E-2</v>
       </c>
       <c r="I2" s="5">
-        <f>2*9.58</f>
-        <v>19.16</v>
+        <f t="shared" ref="I2:I7" si="0">H2*100</f>
+        <v>9.58</v>
       </c>
       <c r="J2" s="1"/>
     </row>
@@ -655,12 +651,14 @@
         <v>0.36499999999999999</v>
       </c>
       <c r="G3" s="5">
+        <f t="shared" ref="G3:G9" si="1">F3*B3</f>
         <v>3.65</v>
       </c>
-      <c r="H3" s="18">
+      <c r="H3" s="13">
         <v>0.22739999999999999</v>
       </c>
       <c r="I3" s="5">
+        <f t="shared" si="0"/>
         <v>22.74</v>
       </c>
       <c r="J3" s="1"/>
@@ -685,12 +683,14 @@
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="G4" s="5">
+        <f t="shared" si="1"/>
         <v>0.33</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="13">
         <v>1.5299999999999999E-2</v>
       </c>
       <c r="I4" s="5">
+        <f t="shared" si="0"/>
         <v>1.53</v>
       </c>
       <c r="J4" s="1"/>
@@ -703,25 +703,27 @@
         <v>10</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E5" s="3">
         <v>10</v>
       </c>
       <c r="F5" s="8">
-        <v>0.371</v>
+        <v>0.8</v>
       </c>
       <c r="G5" s="5">
-        <v>3.71</v>
-      </c>
-      <c r="H5" s="18">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="H5" s="13">
         <v>0.27810000000000001</v>
       </c>
       <c r="I5" s="5">
-        <v>27.81</v>
+        <f t="shared" si="0"/>
+        <v>27.810000000000002</v>
       </c>
       <c r="J5" s="1"/>
     </row>
@@ -733,10 +735,10 @@
         <v>20</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E6" s="3">
         <v>20</v>
@@ -745,105 +747,142 @@
         <v>0.17</v>
       </c>
       <c r="G6" s="5">
-        <v>3.4</v>
-      </c>
-      <c r="H6" s="18">
+        <f t="shared" si="1"/>
+        <v>3.4000000000000004</v>
+      </c>
+      <c r="H6" s="13">
         <v>0.1231</v>
       </c>
       <c r="I6" s="5">
+        <f t="shared" si="0"/>
         <v>12.31</v>
       </c>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="11">
+      <c r="A7" s="12">
         <v>6</v>
       </c>
-      <c r="B7" s="11">
-        <v>10</v>
-      </c>
-      <c r="C7" s="12" t="s">
+      <c r="B7" s="12">
+        <v>10</v>
+      </c>
+      <c r="C7" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="11">
-        <v>10</v>
-      </c>
-      <c r="F7" s="13">
-        <v>0.17</v>
-      </c>
-      <c r="G7" s="10">
-        <v>1.7</v>
-      </c>
-      <c r="H7" s="18">
-        <v>0.1231</v>
+      <c r="E7" s="12">
+        <v>10</v>
+      </c>
+      <c r="F7" s="17">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="G7" s="5">
+        <f t="shared" si="1"/>
+        <v>0.64</v>
+      </c>
+      <c r="H7" s="13">
+        <v>4.4499999999999998E-2</v>
       </c>
       <c r="I7" s="5">
-        <v>12.31</v>
-      </c>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A8" s="14">
+        <f t="shared" si="0"/>
+        <v>4.45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="12">
         <v>7</v>
       </c>
-      <c r="B8" s="14">
-        <v>10</v>
-      </c>
-      <c r="C8" s="16" t="s">
+      <c r="B8" s="12">
+        <v>10</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="12">
+        <v>10</v>
+      </c>
+      <c r="F8" s="17">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G8" s="5">
+        <f t="shared" si="1"/>
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="H8" s="19">
+        <v>4.36E-2</v>
+      </c>
+      <c r="I8" s="5">
+        <f>H8*100</f>
+        <v>4.3600000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A9" s="10">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10">
+        <v>10</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="10">
+        <v>10</v>
+      </c>
+      <c r="F9" s="11">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="G9" s="6">
+        <f t="shared" si="1"/>
+        <v>0.81</v>
+      </c>
+      <c r="H9" s="21">
+        <v>4.36E-2</v>
+      </c>
+      <c r="I9" s="6">
+        <f>H9*100</f>
+        <v>4.3600000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="C10" s="15"/>
+      <c r="F10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="7">
+        <f>SUM(G1:G9)</f>
+        <v>21.39</v>
+      </c>
+      <c r="H10" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="I10" s="7">
+        <f>SUM(I2:I7)</f>
+        <v>78.42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="F11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="5">
+        <f>G10/10</f>
+        <v>2.1390000000000002</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="14">
-        <v>10</v>
-      </c>
-      <c r="F8" s="15">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="G8" s="6">
-        <v>0.64</v>
-      </c>
-      <c r="H8" s="20">
-        <v>4.4499999999999998E-2</v>
-      </c>
-      <c r="I8" s="6">
-        <v>4.45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="F9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7">
-        <f>SUM(G1:G8)</f>
-        <v>16.950000000000003</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="7">
-        <f>SUM(I2:I8)</f>
-        <v>100.31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="F10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="5">
-        <f>G9/10</f>
-        <v>1.6950000000000003</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" s="5">
-        <f>I9/100</f>
-        <v>1.0031000000000001</v>
+      <c r="I11" s="5">
+        <f>I10/100</f>
+        <v>0.78420000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -854,9 +893,10 @@
     <hyperlink ref="C5" r:id="rId4"/>
     <hyperlink ref="C6" r:id="rId5"/>
     <hyperlink ref="C7" r:id="rId6"/>
-    <hyperlink ref="C8" r:id="rId7"/>
+    <hyperlink ref="C8" r:id="rId7" display="https://www.digikey.com/product-detail/en/BAT-HLD-001/BAT-HLD-001-ND/1577235"/>
+    <hyperlink ref="C9" r:id="rId8" display="https://www.digikey.com/product-detail/en/CRCW0603220RFKEA/541-220HCT-ND/1179731"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>